--- a/biology/Médecine/Score_Metavir/Score_Metavir.xlsx
+++ b/biology/Médecine/Score_Metavir/Score_Metavir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Score Metavir, proposé en 1996 par des hépatologistes français[1], est utilisé pour quantifier l’atteinte tissulaire du foie d'un porteur d'une hépatite chronique (B ou C surtout). Il permet d'évaluer la fibrose et de définir une catégorie de patients ; il sert à poser les indications thérapeutiques et à apprécier l'évolution des lésions soit en l'absence de traitement, soit sous traitement de l'hépatite. À noter qu'un F4 n'est pas le double de F2 : ce sont deux catégories de patients différents.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Score Metavir, proposé en 1996 par des hépatologistes français, est utilisé pour quantifier l’atteinte tissulaire du foie d'un porteur d'une hépatite chronique (B ou C surtout). Il permet d'évaluer la fibrose et de définir une catégorie de patients ; il sert à poser les indications thérapeutiques et à apprécier l'évolution des lésions soit en l'absence de traitement, soit sous traitement de l'hépatite. À noter qu'un F4 n'est pas le double de F2 : ce sont deux catégories de patients différents.
 A (activité) traduit l’activité de l’hépatite, donc sa rapidité d’évolution.
 F (fibrose) caractérise les lésions fibreuses déjà existantes sur le foie.
 Exemple : un patient avec un score de A1F1 n'est pas prêt pour suivre un traitement ; un patient avec un score de A1F2 peut commencer le traitement. (Dans cet exemple, A1F2 signifie que la cirrhose ou le cancer du foie pourraient survenir environ 10 années plus tard).
